--- a/data/SR ERPT y LR ERPT (bien hechos) alineados por igual período.xlsx
+++ b/data/SR ERPT y LR ERPT (bien hechos) alineados por igual período.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED574831-F4A0-7746-A6DF-481ADA0FCD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C55FFD-9E2E-4647-8C60-D5EC6E0276FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{5B2F2CC1-0C1D-C042-90A0-E86B3647B6AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{5B2F2CC1-0C1D-C042-90A0-E86B3647B6AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>Períodos regresiones</t>
   </si>
@@ -44,450 +44,9 @@
     <t>SR ERPT</t>
   </si>
   <si>
-    <t>1Tr2005 a 4Tr2007</t>
-  </si>
-  <si>
-    <t>2Tr2005 a 1Tr2008</t>
-  </si>
-  <si>
-    <t>3Tr2005 a 2Tr2008</t>
-  </si>
-  <si>
-    <t>4Tr2005 a 3Tr2008</t>
-  </si>
-  <si>
-    <t>1Tr2006 a 4Tr2008</t>
-  </si>
-  <si>
-    <t>2Tr2006 a 1Tr2009</t>
-  </si>
-  <si>
-    <t>3Tr2006 a 2Tr2009</t>
-  </si>
-  <si>
-    <t>4Tr2006 a 3Tr2009</t>
-  </si>
-  <si>
-    <t>1Tr2007 a 4Tr2009</t>
-  </si>
-  <si>
-    <t>2Tr2007 a 1Tr2010</t>
-  </si>
-  <si>
-    <t>3Tr2007 a 2Tr2010</t>
-  </si>
-  <si>
-    <t>4Tr2007 a 3Tr2010</t>
-  </si>
-  <si>
-    <t>1Tr2008 a 4Tr2010</t>
-  </si>
-  <si>
-    <t>2Tr2008 a 1Tr2011</t>
-  </si>
-  <si>
-    <t>3Tr2008 a 2Tr2011</t>
-  </si>
-  <si>
-    <t>4Tr2008 a 3Tr2011</t>
-  </si>
-  <si>
-    <t>1Tr2009 a 4Tr2011</t>
-  </si>
-  <si>
-    <t>2Tr2009 a 1Tr2012</t>
-  </si>
-  <si>
-    <t>3Tr2009 a 2Tr2012</t>
-  </si>
-  <si>
-    <t>4Tr2009 a 3Tr2012</t>
-  </si>
-  <si>
-    <t>1Tr2010 a 4Tr2012</t>
-  </si>
-  <si>
-    <t>2Tr2010 a 1Tr2013</t>
-  </si>
-  <si>
-    <t>3Tr2010 a 2Tr2013</t>
-  </si>
-  <si>
-    <t>4Tr2010 a 3Tr2013</t>
-  </si>
-  <si>
-    <t>1Tr2011 a 4Tr2013</t>
-  </si>
-  <si>
-    <t>2Tr2011 a 1Tr2014</t>
-  </si>
-  <si>
-    <t>3Tr2011 a 2Tr2014</t>
-  </si>
-  <si>
-    <t>4Tr2011 a 3Tr2014</t>
-  </si>
-  <si>
-    <t>1Tr2012 a 4Tr2014</t>
-  </si>
-  <si>
-    <t>2Tr2012 a 1Tr2015</t>
-  </si>
-  <si>
-    <t>3Tr2012 a 2Tr2015</t>
-  </si>
-  <si>
-    <t>4Tr2012 a 3Tr2015</t>
-  </si>
-  <si>
-    <t>1Tr2013 a 4Tr2015</t>
-  </si>
-  <si>
-    <t>2Tr2013 a 1Tr2016</t>
-  </si>
-  <si>
-    <t>3Tr2013 a 2Tr2016</t>
-  </si>
-  <si>
-    <t>4Tr2013 a 3Tr2016</t>
-  </si>
-  <si>
-    <t>1Tr2014 a 4Tr2016</t>
-  </si>
-  <si>
-    <t>2Tr2014 a 1Tr2017</t>
-  </si>
-  <si>
-    <t>3Tr2014 a 2Tr2017</t>
-  </si>
-  <si>
-    <t>4Tr2014 a 3Tr2017</t>
-  </si>
-  <si>
-    <t>1Tr2015 a 4Tr2017</t>
-  </si>
-  <si>
-    <t>2Tr2015 a 1Tr2018</t>
-  </si>
-  <si>
-    <t>3Tr2015 a 2Tr2018</t>
-  </si>
-  <si>
-    <t>4Tr2015 a 3Tr2018</t>
-  </si>
-  <si>
-    <t>1Tr2016 a 4Tr2018</t>
-  </si>
-  <si>
-    <t>2Tr2016 a 1Tr2019</t>
-  </si>
-  <si>
-    <t>3Tr2016 a 2Tr2019</t>
-  </si>
-  <si>
-    <t>4Tr2016 a 3Tr2019</t>
-  </si>
-  <si>
-    <t>1Tr2017 a 4Tr2019</t>
-  </si>
-  <si>
-    <t>2Tr2017 a 1Tr2020</t>
-  </si>
-  <si>
-    <t>3Tr2017 a 2Tr2020</t>
-  </si>
-  <si>
-    <t>4Tr2017 a 3Tr2020</t>
-  </si>
-  <si>
-    <t>1Tr2018 a 4Tr2020</t>
-  </si>
-  <si>
-    <t>1Tr2004 a 4Tr2006</t>
-  </si>
-  <si>
-    <t>2Tr2004 a 1Tr2007</t>
-  </si>
-  <si>
-    <t>3Tr2004 a 2Tr2007</t>
-  </si>
-  <si>
-    <t>4Tr2004 a 3Tr2007</t>
-  </si>
-  <si>
-    <t>1Tr2003 a 4Tr2005</t>
-  </si>
-  <si>
-    <t>2Tr2003 a 1Tr2006</t>
-  </si>
-  <si>
-    <t>3Tr2003 a 2Tr2006</t>
-  </si>
-  <si>
-    <t>4Tr2003 a 3Tr2006</t>
-  </si>
-  <si>
-    <t>1Tr2002 a 4Tr2004</t>
-  </si>
-  <si>
-    <t>2Tr2002 a 1Tr2005</t>
-  </si>
-  <si>
-    <t>3Tr2002 a 2Tr2005</t>
-  </si>
-  <si>
-    <t>4Tr2002 a 3Tr2005</t>
-  </si>
-  <si>
-    <t>1Tr2001 a 4Tr2003</t>
-  </si>
-  <si>
-    <t>2Tr2001 a 1Tr2004</t>
-  </si>
-  <si>
-    <t>3Tr2001 a 2Tr2004</t>
-  </si>
-  <si>
-    <t>4Tr2001 a 3Tr2004</t>
-  </si>
-  <si>
-    <t>1Tr2000 a 4Tr2002</t>
-  </si>
-  <si>
-    <t>2Tr2000 a 1Tr2003</t>
-  </si>
-  <si>
-    <t>3Tr2000 a 2Tr2003</t>
-  </si>
-  <si>
-    <t>4Tr2000 a 3Tr2003</t>
-  </si>
-  <si>
-    <t>1Tr1999 a 4Tr2001</t>
-  </si>
-  <si>
-    <t>2Tr1999 a 1Tr2002</t>
-  </si>
-  <si>
-    <t>3Tr1999 a 2Tr2002</t>
-  </si>
-  <si>
-    <t>4Tr1999 a 3Tr2002</t>
-  </si>
-  <si>
-    <t>1Tr1998 a 4Tr2000</t>
-  </si>
-  <si>
-    <t>2Tr1998 a 1Tr2001</t>
-  </si>
-  <si>
-    <t>3Tr1998 a 2Tr2001</t>
-  </si>
-  <si>
-    <t>4Tr1998 a 3Tr2001</t>
-  </si>
-  <si>
-    <t>1Tr1997 a 4Tr1999</t>
-  </si>
-  <si>
-    <t>2Tr1997 a 1Tr2000</t>
-  </si>
-  <si>
-    <t>3Tr1997 a 2Tr2000</t>
-  </si>
-  <si>
-    <t>4Tr1997 a 3Tr2000</t>
-  </si>
-  <si>
     <t>LR ERPT</t>
   </si>
   <si>
-    <t>1Tr1996 a 4Tr1998</t>
-  </si>
-  <si>
-    <t>2Tr1996 a 1Tr1999</t>
-  </si>
-  <si>
-    <t>3Tr1996 a 2Tr1999</t>
-  </si>
-  <si>
-    <t>4Tr1996 a 3Tr1999</t>
-  </si>
-  <si>
-    <t>1Tr1995 a 4Tr1997</t>
-  </si>
-  <si>
-    <t>2Tr1995 a 1Tr1998</t>
-  </si>
-  <si>
-    <t>3Tr1995 a 2Tr1998</t>
-  </si>
-  <si>
-    <t>4Tr1995 a 3Tr1998</t>
-  </si>
-  <si>
-    <t>1Tr1994 a 4Tr1996</t>
-  </si>
-  <si>
-    <t>2Tr1994 a 1Tr1997</t>
-  </si>
-  <si>
-    <t>3Tr1994 a 2Tr1997</t>
-  </si>
-  <si>
-    <t>4Tr1994 a 3Tr1997</t>
-  </si>
-  <si>
-    <t>1Tr1993 a 4Tr1995</t>
-  </si>
-  <si>
-    <t>2Tr1993 a 1Tr1996</t>
-  </si>
-  <si>
-    <t>3Tr1993 a 2Tr1996</t>
-  </si>
-  <si>
-    <t>4Tr1993 a 3Tr1996</t>
-  </si>
-  <si>
-    <t>1Tr1992 a 4Tr1994</t>
-  </si>
-  <si>
-    <t>2Tr1992 a 1Tr1995</t>
-  </si>
-  <si>
-    <t>3Tr1992 a 2Tr1995</t>
-  </si>
-  <si>
-    <t>4Tr1992 a 3Tr1995</t>
-  </si>
-  <si>
-    <t>1Tr1991 a 4Tr1993</t>
-  </si>
-  <si>
-    <t>2Tr1991 a 1Tr1994</t>
-  </si>
-  <si>
-    <t>3Tr1991 a 2Tr1994</t>
-  </si>
-  <si>
-    <t>4Tr1991 a 3Tr1994</t>
-  </si>
-  <si>
-    <t>1Tr1990 a 4Tr1992</t>
-  </si>
-  <si>
-    <t>2Tr1990 a 1Tr1993</t>
-  </si>
-  <si>
-    <t>3Tr1990 a 2Tr1993</t>
-  </si>
-  <si>
-    <t>4Tr1990 a 3Tr1993</t>
-  </si>
-  <si>
-    <t>1Tr1989 a 4Tr1991</t>
-  </si>
-  <si>
-    <t>2Tr1989 a 1Tr1992</t>
-  </si>
-  <si>
-    <t>3Tr1989 a 2Tr1992</t>
-  </si>
-  <si>
-    <t>4Tr1989 a 3Tr1992</t>
-  </si>
-  <si>
-    <t>1Tr1988 a 4Tr1990</t>
-  </si>
-  <si>
-    <t>2Tr1988 a 1Tr1991</t>
-  </si>
-  <si>
-    <t>3Tr1988 a 2Tr1991</t>
-  </si>
-  <si>
-    <t>4Tr1988 a 3Tr1991</t>
-  </si>
-  <si>
-    <t>1Tr1987 a 4Tr1989</t>
-  </si>
-  <si>
-    <t>2Tr1987 a 1Tr1990</t>
-  </si>
-  <si>
-    <t>3Tr1987 a 2Tr1990</t>
-  </si>
-  <si>
-    <t>4Tr1987 a 3Tr1990</t>
-  </si>
-  <si>
-    <t>1Tr1986 a 4Tr1988</t>
-  </si>
-  <si>
-    <t>2Tr1986 a 1Tr1989</t>
-  </si>
-  <si>
-    <t>3Tr1986 a 2Tr1989</t>
-  </si>
-  <si>
-    <t>4Tr1986 a 3Tr1989</t>
-  </si>
-  <si>
-    <t>1Tr1985 a 4Tr1987</t>
-  </si>
-  <si>
-    <t>2Tr1985 a 1Tr1988</t>
-  </si>
-  <si>
-    <t>3Tr1985 a 2Tr1988</t>
-  </si>
-  <si>
-    <t>4Tr1985 a 3Tr1988</t>
-  </si>
-  <si>
-    <t>1Tr1984 a 4Tr1986</t>
-  </si>
-  <si>
-    <t>2Tr1984 a 1Tr1987</t>
-  </si>
-  <si>
-    <t>3Tr1984 a 2Tr1987</t>
-  </si>
-  <si>
-    <t>4Tr1984 a 3Tr1987</t>
-  </si>
-  <si>
-    <t>1Tr1983 a 4Tr1985</t>
-  </si>
-  <si>
-    <t>2Tr1983 a 1Tr1986</t>
-  </si>
-  <si>
-    <t>3Tr1983 a 2Tr1986</t>
-  </si>
-  <si>
-    <t>4Tr1983 a 3Tr1986</t>
-  </si>
-  <si>
-    <t>1Tr1982 a 4Tr1984</t>
-  </si>
-  <si>
-    <t>2Tr1982 a 1Tr1985</t>
-  </si>
-  <si>
-    <t>3Tr1982 a 2Tr1985</t>
-  </si>
-  <si>
-    <t>4Tr1982 a 3Tr1985</t>
-  </si>
-  <si>
-    <t>2Tr1981 a 1Tr1984</t>
-  </si>
-  <si>
-    <t>3Tr1981 a 2Tr1984</t>
-  </si>
-  <si>
     <t>2q1981-1q1987</t>
   </si>
   <si>
@@ -894,6 +453,474 @@
   </si>
   <si>
     <t>1q2015-4q2020</t>
+  </si>
+  <si>
+    <t>2Tr1981 a 1Tr1982</t>
+  </si>
+  <si>
+    <t>3Tr1981 a 2Tr1982</t>
+  </si>
+  <si>
+    <t>4Tr1981 a 3Tr1982</t>
+  </si>
+  <si>
+    <t>1Tr1982 a 4Tr1982</t>
+  </si>
+  <si>
+    <t>2Tr1982 a 1Tr1983</t>
+  </si>
+  <si>
+    <t>3Tr1982 a 2Tr1983</t>
+  </si>
+  <si>
+    <t>4Tr1982 a 3Tr1983</t>
+  </si>
+  <si>
+    <t>1Tr1983 a 4Tr1983</t>
+  </si>
+  <si>
+    <t>2Tr1983 a 1Tr1984</t>
+  </si>
+  <si>
+    <t>3Tr1983 a 2Tr1984</t>
+  </si>
+  <si>
+    <t>4Tr1983 a 3Tr1984</t>
+  </si>
+  <si>
+    <t>1Tr1984 a 4Tr1984</t>
+  </si>
+  <si>
+    <t>2Tr1984 a 1Tr1985</t>
+  </si>
+  <si>
+    <t>3Tr1984 a 2Tr1985</t>
+  </si>
+  <si>
+    <t>4Tr1984 a 3Tr1985</t>
+  </si>
+  <si>
+    <t>1Tr1985 a 4Tr1985</t>
+  </si>
+  <si>
+    <t>2Tr1985 a 1Tr1986</t>
+  </si>
+  <si>
+    <t>3Tr1985 a 2Tr1986</t>
+  </si>
+  <si>
+    <t>4Tr1985 a 3Tr1986</t>
+  </si>
+  <si>
+    <t>1Tr1986 a 4Tr1986</t>
+  </si>
+  <si>
+    <t>2Tr1986 a 1Tr1987</t>
+  </si>
+  <si>
+    <t>3Tr1986 a 2Tr1987</t>
+  </si>
+  <si>
+    <t>4Tr1986 a 3Tr1987</t>
+  </si>
+  <si>
+    <t>1Tr1987 a 4Tr1987</t>
+  </si>
+  <si>
+    <t>2Tr1987 a 1Tr1988</t>
+  </si>
+  <si>
+    <t>3Tr1987 a 2Tr1988</t>
+  </si>
+  <si>
+    <t>4Tr1987 a 3Tr1988</t>
+  </si>
+  <si>
+    <t>1Tr1988 a 4Tr1988</t>
+  </si>
+  <si>
+    <t>2Tr1988 a 1Tr1989</t>
+  </si>
+  <si>
+    <t>3Tr1988 a 2Tr1989</t>
+  </si>
+  <si>
+    <t>4Tr1988 a 3Tr1989</t>
+  </si>
+  <si>
+    <t>1Tr1989 a 4Tr1989</t>
+  </si>
+  <si>
+    <t>2Tr1989 a 1Tr1990</t>
+  </si>
+  <si>
+    <t>3Tr1989 a 2Tr1990</t>
+  </si>
+  <si>
+    <t>4Tr1989 a 3Tr1990</t>
+  </si>
+  <si>
+    <t>1Tr1990 a 4Tr1990</t>
+  </si>
+  <si>
+    <t>2Tr1990 a 1Tr1991</t>
+  </si>
+  <si>
+    <t>3Tr1990 a 2Tr1991</t>
+  </si>
+  <si>
+    <t>4Tr1990 a 3Tr1991</t>
+  </si>
+  <si>
+    <t>1Tr1991 a 4Tr1991</t>
+  </si>
+  <si>
+    <t>2Tr1991 a 1Tr1992</t>
+  </si>
+  <si>
+    <t>3Tr1991 a 2Tr1992</t>
+  </si>
+  <si>
+    <t>4Tr1991 a 3Tr1992</t>
+  </si>
+  <si>
+    <t>1Tr1992 a 4Tr1992</t>
+  </si>
+  <si>
+    <t>2Tr1992 a 1Tr1993</t>
+  </si>
+  <si>
+    <t>3Tr1992 a 2Tr1993</t>
+  </si>
+  <si>
+    <t>4Tr1992 a 3Tr1993</t>
+  </si>
+  <si>
+    <t>1Tr1993 a 4Tr1993</t>
+  </si>
+  <si>
+    <t>2Tr1993 a 1Tr1994</t>
+  </si>
+  <si>
+    <t>3Tr1993 a 2Tr1994</t>
+  </si>
+  <si>
+    <t>4Tr1993 a 3Tr1994</t>
+  </si>
+  <si>
+    <t>1Tr1994 a 4Tr1994</t>
+  </si>
+  <si>
+    <t>2Tr1994 a 1Tr1995</t>
+  </si>
+  <si>
+    <t>3Tr1994 a 2Tr1995</t>
+  </si>
+  <si>
+    <t>4Tr1994 a 3Tr1995</t>
+  </si>
+  <si>
+    <t>1Tr1995 a 4Tr1995</t>
+  </si>
+  <si>
+    <t>2Tr1995 a 1Tr1996</t>
+  </si>
+  <si>
+    <t>3Tr1995 a 2Tr1996</t>
+  </si>
+  <si>
+    <t>4Tr1995 a 3Tr1996</t>
+  </si>
+  <si>
+    <t>1Tr1996 a 4Tr1996</t>
+  </si>
+  <si>
+    <t>2Tr1996 a 1Tr1997</t>
+  </si>
+  <si>
+    <t>3Tr1996 a 2Tr1997</t>
+  </si>
+  <si>
+    <t>4Tr1996 a 3Tr1997</t>
+  </si>
+  <si>
+    <t>1Tr1997 a 4Tr1997</t>
+  </si>
+  <si>
+    <t>2Tr1997 a 1Tr1998</t>
+  </si>
+  <si>
+    <t>3Tr1997 a 2Tr1998</t>
+  </si>
+  <si>
+    <t>4Tr1997 a 3Tr1998</t>
+  </si>
+  <si>
+    <t>1Tr1998 a 4Tr1998</t>
+  </si>
+  <si>
+    <t>2Tr1998 a 1Tr1999</t>
+  </si>
+  <si>
+    <t>3Tr1998 a 2Tr1999</t>
+  </si>
+  <si>
+    <t>4Tr1998 a 3Tr1999</t>
+  </si>
+  <si>
+    <t>1Tr1999 a 4Tr1999</t>
+  </si>
+  <si>
+    <t>2Tr1999 a 1Tr2000</t>
+  </si>
+  <si>
+    <t>3Tr1999 a 2Tr2000</t>
+  </si>
+  <si>
+    <t>4Tr1999 a 3Tr2000</t>
+  </si>
+  <si>
+    <t>1Tr2000 a 4Tr2000</t>
+  </si>
+  <si>
+    <t>2Tr2000 a 1Tr2001</t>
+  </si>
+  <si>
+    <t>3Tr2000 a 2Tr2001</t>
+  </si>
+  <si>
+    <t>4Tr2000 a 3Tr2001</t>
+  </si>
+  <si>
+    <t>1Tr2001 a 4Tr2001</t>
+  </si>
+  <si>
+    <t>2Tr2001 a 1Tr2002</t>
+  </si>
+  <si>
+    <t>3Tr2001 a 2Tr2002</t>
+  </si>
+  <si>
+    <t>4Tr2001 a 3Tr2002</t>
+  </si>
+  <si>
+    <t>1Tr2002 a 4Tr2002</t>
+  </si>
+  <si>
+    <t>2Tr2002 a 1Tr2003</t>
+  </si>
+  <si>
+    <t>3Tr2002 a 2Tr2003</t>
+  </si>
+  <si>
+    <t>4Tr2002 a 3Tr2003</t>
+  </si>
+  <si>
+    <t>1Tr2003 a 4Tr2003</t>
+  </si>
+  <si>
+    <t>2Tr2003 a 1Tr2004</t>
+  </si>
+  <si>
+    <t>3Tr2003 a 2Tr2004</t>
+  </si>
+  <si>
+    <t>4Tr2003 a 3Tr2004</t>
+  </si>
+  <si>
+    <t>1Tr2004 a 4Tr2004</t>
+  </si>
+  <si>
+    <t>2Tr2004 a 1Tr2005</t>
+  </si>
+  <si>
+    <t>3Tr2004 a 2Tr2005</t>
+  </si>
+  <si>
+    <t>4Tr2004 a 3Tr2005</t>
+  </si>
+  <si>
+    <t>1Tr2005 a 4Tr2005</t>
+  </si>
+  <si>
+    <t>2Tr2005 a 1Tr2006</t>
+  </si>
+  <si>
+    <t>3Tr2005 a 2Tr2006</t>
+  </si>
+  <si>
+    <t>4Tr2005 a 3Tr2006</t>
+  </si>
+  <si>
+    <t>1Tr2006 a 4Tr2006</t>
+  </si>
+  <si>
+    <t>2Tr2006 a 1Tr2007</t>
+  </si>
+  <si>
+    <t>3Tr2006 a 2Tr2007</t>
+  </si>
+  <si>
+    <t>4Tr2006 a 3Tr2007</t>
+  </si>
+  <si>
+    <t>1Tr2007 a 4Tr2007</t>
+  </si>
+  <si>
+    <t>2Tr2007 a 1Tr2008</t>
+  </si>
+  <si>
+    <t>3Tr2007 a 2Tr2008</t>
+  </si>
+  <si>
+    <t>4Tr2007 a 3Tr2008</t>
+  </si>
+  <si>
+    <t>1Tr2008 a 4Tr2008</t>
+  </si>
+  <si>
+    <t>2Tr2008 a 1Tr2009</t>
+  </si>
+  <si>
+    <t>3Tr2008 a 2Tr2009</t>
+  </si>
+  <si>
+    <t>4Tr2008 a 3Tr2009</t>
+  </si>
+  <si>
+    <t>1Tr2009 a 4Tr2009</t>
+  </si>
+  <si>
+    <t>2Tr2009 a 1Tr2010</t>
+  </si>
+  <si>
+    <t>3Tr2009 a 2Tr2010</t>
+  </si>
+  <si>
+    <t>4Tr2009 a 3Tr2010</t>
+  </si>
+  <si>
+    <t>1Tr2010 a 4Tr2010</t>
+  </si>
+  <si>
+    <t>2Tr2010 a 1Tr2011</t>
+  </si>
+  <si>
+    <t>3Tr2010 a 2Tr2011</t>
+  </si>
+  <si>
+    <t>4Tr2010 a 3Tr2011</t>
+  </si>
+  <si>
+    <t>1Tr2011 a 4Tr2011</t>
+  </si>
+  <si>
+    <t>2Tr2011 a 1Tr2012</t>
+  </si>
+  <si>
+    <t>3Tr2011 a 2Tr2012</t>
+  </si>
+  <si>
+    <t>4Tr2011 a 3Tr2012</t>
+  </si>
+  <si>
+    <t>1Tr2012 a 4Tr2012</t>
+  </si>
+  <si>
+    <t>2Tr2012 a 1Tr2013</t>
+  </si>
+  <si>
+    <t>3Tr2012 a 2Tr2013</t>
+  </si>
+  <si>
+    <t>4Tr2012 a 3Tr2013</t>
+  </si>
+  <si>
+    <t>1Tr2013 a 4Tr2013</t>
+  </si>
+  <si>
+    <t>2Tr2013 a 1Tr2014</t>
+  </si>
+  <si>
+    <t>3Tr2013 a 2Tr2014</t>
+  </si>
+  <si>
+    <t>4Tr2013 a 3Tr2014</t>
+  </si>
+  <si>
+    <t>1Tr2014 a 4Tr2014</t>
+  </si>
+  <si>
+    <t>2Tr2014 a 1Tr2015</t>
+  </si>
+  <si>
+    <t>3Tr2014 a 2Tr2015</t>
+  </si>
+  <si>
+    <t>4Tr2014 a 3Tr2015</t>
+  </si>
+  <si>
+    <t>1Tr2015 a 4Tr2015</t>
+  </si>
+  <si>
+    <t>2Tr2015 a 1Tr2016</t>
+  </si>
+  <si>
+    <t>3Tr2015 a 2Tr2016</t>
+  </si>
+  <si>
+    <t>4Tr2015 a 3Tr2016</t>
+  </si>
+  <si>
+    <t>1Tr2016 a 4Tr2016</t>
+  </si>
+  <si>
+    <t>2Tr2016 a 1Tr2017</t>
+  </si>
+  <si>
+    <t>3Tr2016 a 2Tr2017</t>
+  </si>
+  <si>
+    <t>4Tr2016 a 3Tr2017</t>
+  </si>
+  <si>
+    <t>1Tr2017 a 4Tr2017</t>
+  </si>
+  <si>
+    <t>2Tr2017 a 1Tr2018</t>
+  </si>
+  <si>
+    <t>3Tr2017 a 2Tr2018</t>
+  </si>
+  <si>
+    <t>4Tr2017 a 3Tr2018</t>
+  </si>
+  <si>
+    <t>1Tr2018 a 4Tr2018</t>
+  </si>
+  <si>
+    <t>2Tr2018 a 1Tr2019</t>
+  </si>
+  <si>
+    <t>3Tr2018 a 2Tr2019</t>
+  </si>
+  <si>
+    <t>4Tr2018 a 3Tr2019</t>
+  </si>
+  <si>
+    <t>1Tr2019 a 4Tr2019</t>
+  </si>
+  <si>
+    <t>2Tr2019 a 1Tr2020</t>
+  </si>
+  <si>
+    <t>3Tr2019 a 2Tr2020</t>
+  </si>
+  <si>
+    <t>4Tr2019 a 3Tr2020</t>
+  </si>
+  <si>
+    <t>1Tr2020 a 4Tr2020</t>
   </si>
 </sst>
 </file>
@@ -1256,9 +1283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ED7711-F4BA-3D42-9B3B-DDDE3077539C}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1277,15 +1306,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2">
         <v>0.23499999999999999</v>
@@ -1296,10 +1325,10 @@
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2">
         <v>0.19769999999999999</v>
@@ -1310,10 +1339,10 @@
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2">
         <v>0.42949999999999999</v>
@@ -1324,10 +1353,10 @@
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2">
         <v>0.45879999999999999</v>
@@ -1338,10 +1367,10 @@
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2">
         <v>0.2883</v>
@@ -1352,10 +1381,10 @@
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="2">
         <v>0.32750000000000001</v>
@@ -1366,10 +1395,10 @@
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2">
         <v>1.0550999999999999</v>
@@ -1380,10 +1409,10 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C9" s="2">
         <v>0.78469999999999995</v>
@@ -1394,10 +1423,10 @@
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2">
         <v>0.7843</v>
@@ -1408,10 +1437,10 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2">
         <v>0.501</v>
@@ -1422,10 +1451,10 @@
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2">
         <v>0.39750000000000002</v>
@@ -1436,10 +1465,10 @@
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2">
         <v>0.81979999999999997</v>
@@ -1450,10 +1479,10 @@
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2">
         <v>0.74099999999999999</v>
@@ -1464,10 +1493,10 @@
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2">
         <v>0.64600000000000002</v>
@@ -1478,10 +1507,10 @@
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2">
         <v>0.55169999999999997</v>
@@ -1492,10 +1521,10 @@
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2">
         <v>0.54700000000000004</v>
@@ -1506,10 +1535,10 @@
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2">
         <v>0.53949999999999998</v>
@@ -1520,10 +1549,10 @@
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="C19" s="2">
         <v>0.52759999999999996</v>
@@ -1534,10 +1563,10 @@
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2">
         <v>0.4405</v>
@@ -1548,10 +1577,10 @@
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2">
         <v>0.4088</v>
@@ -1562,10 +1591,10 @@
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2">
         <v>0.36030000000000001</v>
@@ -1576,10 +1605,10 @@
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2">
         <v>0.38450000000000001</v>
@@ -1590,10 +1619,10 @@
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="C24" s="2">
         <v>0.36080000000000001</v>
@@ -1604,10 +1633,10 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2">
         <v>0.36870000000000003</v>
@@ -1618,10 +1647,10 @@
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2">
         <v>0.36470000000000002</v>
@@ -1632,10 +1661,10 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2">
         <v>0.3483</v>
@@ -1646,10 +1675,10 @@
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C28" s="2">
         <v>0.3488</v>
@@ -1660,10 +1689,10 @@
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="C29" s="2">
         <v>0.3448</v>
@@ -1674,10 +1703,10 @@
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="C30" s="2">
         <v>0.35299999999999998</v>
@@ -1688,10 +1717,10 @@
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C31" s="2">
         <v>0.35360000000000003</v>
@@ -1702,10 +1731,10 @@
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C32" s="2">
         <v>0.379</v>
@@ -1716,10 +1745,10 @@
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="C33" s="2">
         <v>0.39169999999999999</v>
@@ -1730,10 +1759,10 @@
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="C34" s="2">
         <v>0.4173</v>
@@ -1744,10 +1773,10 @@
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="C35" s="2">
         <v>0.74590000000000001</v>
@@ -1758,10 +1787,10 @@
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="C36" s="2">
         <v>0.60399999999999998</v>
@@ -1772,10 +1801,10 @@
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="C37" s="2">
         <v>0.65600000000000003</v>
@@ -1786,10 +1815,10 @@
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="C38" s="2">
         <v>9.5699999999999993E-2</v>
@@ -1800,10 +1829,10 @@
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C39" s="2">
         <v>9.2999999999999999E-2</v>
@@ -1814,10 +1843,10 @@
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C40" s="2">
         <v>5.6000000000000001E-2</v>
@@ -1828,10 +1857,10 @@
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="C41" s="2">
         <v>0.12540000000000001</v>
@@ -1842,10 +1871,10 @@
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C42" s="2">
         <v>-0.2064</v>
@@ -1856,10 +1885,10 @@
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="C43" s="2">
         <v>-6.1600000000000002E-2</v>
@@ -1870,10 +1899,10 @@
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2">
         <v>-5.4899999999999997E-2</v>
@@ -1884,10 +1913,10 @@
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="C45" s="2">
         <v>-0.96579999999999999</v>
@@ -1898,10 +1927,10 @@
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="C46" s="2">
         <v>-1.2192000000000001</v>
@@ -1912,10 +1941,10 @@
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="C47" s="2">
         <v>-1.3872</v>
@@ -1926,10 +1955,10 @@
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="C48" s="2">
         <v>-1.3115000000000001</v>
@@ -1940,10 +1969,10 @@
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="C49" s="2">
         <v>1.7825</v>
@@ -1954,10 +1983,10 @@
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="C50" s="2">
         <v>-9.8895999999999997</v>
@@ -1968,10 +1997,10 @@
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="C51" s="2">
         <v>-10.968</v>
@@ -1982,10 +2011,10 @@
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="C52" s="2">
         <v>-5.1814999999999998</v>
@@ -1996,10 +2025,10 @@
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="C53" s="2">
         <v>-0.1221</v>
@@ -2010,10 +2039,10 @@
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="C54" s="2">
         <v>-0.34939999999999999</v>
@@ -2024,10 +2053,10 @@
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="C55" s="2">
         <v>5.2901999999999996</v>
@@ -2038,10 +2067,10 @@
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="C56" s="2">
         <v>5.0458999999999996</v>
@@ -2052,10 +2081,10 @@
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="C57" s="2">
         <v>4.3951000000000002</v>
@@ -2066,10 +2095,10 @@
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="C58" s="2">
         <v>9.6773000000000007</v>
@@ -2080,10 +2109,10 @@
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="C59" s="2">
         <v>145.76140000000001</v>
@@ -2094,10 +2123,10 @@
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="C60" s="2">
         <v>149.27780000000001</v>
@@ -2108,10 +2137,10 @@
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="C61" s="2">
         <v>169.88239999999999</v>
@@ -2122,10 +2151,10 @@
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C62" s="2">
         <v>0.1069</v>
@@ -2136,10 +2165,10 @@
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="C63" s="2">
         <v>0.1099</v>
@@ -2150,10 +2179,10 @@
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="C64" s="2">
         <v>0.1106</v>
@@ -2164,10 +2193,10 @@
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="C65" s="2">
         <v>0.1133</v>
@@ -2178,10 +2207,10 @@
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>215</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="C66" s="2">
         <v>0.10630000000000001</v>
@@ -2192,10 +2221,10 @@
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="C67" s="2">
         <v>0.11650000000000001</v>
@@ -2206,10 +2235,10 @@
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="C68" s="2">
         <v>0.1086</v>
@@ -2220,10 +2249,10 @@
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="C69" s="2">
         <v>0.106</v>
@@ -2234,10 +2263,10 @@
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="C70" s="2">
         <v>0.10589999999999999</v>
@@ -2248,10 +2277,10 @@
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="C71" s="2">
         <v>0.1062</v>
@@ -2262,10 +2291,10 @@
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="C72" s="2">
         <v>0.1212</v>
@@ -2276,10 +2305,10 @@
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="C73" s="2">
         <v>0.11219999999999999</v>
@@ -2290,10 +2319,10 @@
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="C74" s="2">
         <v>0.1095</v>
@@ -2304,10 +2333,10 @@
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="C75" s="2">
         <v>8.4400000000000003E-2</v>
@@ -2318,10 +2347,10 @@
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="C76" s="2">
         <v>9.4399999999999998E-2</v>
@@ -2332,10 +2361,10 @@
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="C77" s="2">
         <v>9.2299999999999993E-2</v>
@@ -2346,10 +2375,10 @@
     </row>
     <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="C78" s="2">
         <v>0.1108</v>
@@ -2360,10 +2389,10 @@
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="C79" s="2">
         <v>0.14460000000000001</v>
@@ -2374,10 +2403,10 @@
     </row>
     <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="C80" s="2">
         <v>0.13150000000000001</v>
@@ -2388,10 +2417,10 @@
     </row>
     <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="C81" s="2">
         <v>0.14610000000000001</v>
@@ -2402,10 +2431,10 @@
     </row>
     <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="C82" s="2">
         <v>0.15459999999999999</v>
@@ -2416,10 +2445,10 @@
     </row>
     <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="C83" s="2">
         <v>0.13730000000000001</v>
@@ -2430,10 +2459,10 @@
     </row>
     <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>71</v>
+        <v>222</v>
       </c>
       <c r="C84" s="2">
         <v>0.12709999999999999</v>
@@ -2444,10 +2473,10 @@
     </row>
     <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="C85" s="2">
         <v>0.24010000000000001</v>
@@ -2458,10 +2487,10 @@
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="C86" s="2">
         <v>0.23039999999999999</v>
@@ -2472,10 +2501,10 @@
     </row>
     <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="C87" s="2">
         <v>-0.1704</v>
@@ -2486,10 +2515,10 @@
     </row>
     <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>237</v>
+        <v>90</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="C88" s="2">
         <v>0.21099999999999999</v>
@@ -2500,10 +2529,10 @@
     </row>
     <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="C89" s="2">
         <v>0.18290000000000001</v>
@@ -2514,10 +2543,10 @@
     </row>
     <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="C90" s="2">
         <v>9.0700000000000003E-2</v>
@@ -2528,10 +2557,10 @@
     </row>
     <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="C91" s="2">
         <v>8.1100000000000005E-2</v>
@@ -2542,10 +2571,10 @@
     </row>
     <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="C92" s="2">
         <v>-1.0999999999999999E-2</v>
@@ -2556,10 +2585,10 @@
     </row>
     <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="C93" s="2">
         <v>-2.9700000000000001E-2</v>
@@ -2570,10 +2599,10 @@
     </row>
     <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="C94" s="2">
         <v>-7.0900000000000005E-2</v>
@@ -2584,10 +2613,10 @@
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="C95" s="2">
         <v>5.74E-2</v>
@@ -2598,10 +2627,10 @@
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="C96" s="2">
         <v>5.0900000000000001E-2</v>
@@ -2612,10 +2641,10 @@
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>246</v>
+        <v>99</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="C97" s="2">
         <v>0.19320000000000001</v>
@@ -2626,10 +2655,10 @@
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="C98" s="2">
         <v>8.5099999999999995E-2</v>
@@ -2640,10 +2669,10 @@
     </row>
     <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>248</v>
+        <v>101</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="C99" s="2">
         <v>0.1003</v>
@@ -2654,10 +2683,10 @@
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="C100" s="2">
         <v>0.1032</v>
@@ -2668,10 +2697,10 @@
     </row>
     <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="C101" s="2">
         <v>3.9800000000000002E-2</v>
@@ -2682,10 +2711,10 @@
     </row>
     <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="C102" s="2">
         <v>7.1199999999999999E-2</v>
@@ -2696,10 +2725,10 @@
     </row>
     <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>105</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="C103" s="2">
         <v>7.6999999999999999E-2</v>
@@ -2710,10 +2739,10 @@
     </row>
     <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="C104" s="2">
         <v>4.36E-2</v>
@@ -2724,10 +2753,10 @@
     </row>
     <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="C105" s="2">
         <v>0.19170000000000001</v>
@@ -2738,10 +2767,10 @@
     </row>
     <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>108</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C106" s="2">
         <v>0.26590000000000003</v>
@@ -2752,10 +2781,10 @@
     </row>
     <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="C107" s="2">
         <v>0.46789999999999998</v>
@@ -2766,10 +2795,10 @@
     </row>
     <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="C108" s="2">
         <v>9.8100000000000007E-2</v>
@@ -2780,10 +2809,10 @@
     </row>
     <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="C109" s="2">
         <v>-7.4000000000000003E-3</v>
@@ -2794,10 +2823,10 @@
     </row>
     <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>112</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="C110" s="2">
         <v>0.317</v>
@@ -2808,10 +2837,10 @@
     </row>
     <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="C111" s="2">
         <v>0.33729999999999999</v>
@@ -2822,10 +2851,10 @@
     </row>
     <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="C112" s="2">
         <v>0.32469999999999999</v>
@@ -2836,10 +2865,10 @@
     </row>
     <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="C113" s="2">
         <v>0.32490000000000002</v>
@@ -2850,10 +2879,10 @@
     </row>
     <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="C114" s="2">
         <v>0.26429999999999998</v>
@@ -2864,10 +2893,10 @@
     </row>
     <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="C115" s="2">
         <v>0.29830000000000001</v>
@@ -2878,10 +2907,10 @@
     </row>
     <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="C116" s="2">
         <v>0.3291</v>
@@ -2892,10 +2921,10 @@
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>266</v>
+        <v>119</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="C117" s="2">
         <v>0.30830000000000002</v>
@@ -2906,10 +2935,10 @@
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="C118" s="2">
         <v>0.219</v>
@@ -2920,10 +2949,10 @@
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="C119" s="2">
         <v>0.219</v>
@@ -2934,10 +2963,10 @@
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="C120" s="2">
         <v>5.9200000000000003E-2</v>
@@ -2948,10 +2977,10 @@
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="C121" s="2">
         <v>0.27439999999999998</v>
@@ -2962,10 +2991,10 @@
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="C122" s="2">
         <v>0.29199999999999998</v>
@@ -2976,10 +3005,10 @@
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="C123" s="2">
         <v>0.21260000000000001</v>
@@ -2990,10 +3019,10 @@
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>273</v>
+        <v>126</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="C124" s="2">
         <v>0.1668</v>
@@ -3004,10 +3033,10 @@
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>274</v>
+        <v>127</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="C125" s="2">
         <v>0.1767</v>
@@ -3018,10 +3047,10 @@
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="C126" s="2">
         <v>0.2142</v>
@@ -3032,10 +3061,10 @@
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="C127" s="2">
         <v>0.2001</v>
@@ -3046,10 +3075,10 @@
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="C128" s="2">
         <v>0.20119999999999999</v>
@@ -3060,10 +3089,10 @@
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="C129" s="2">
         <v>0.1045</v>
@@ -3074,10 +3103,10 @@
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>279</v>
+        <v>132</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="C130" s="2">
         <v>0.18740000000000001</v>
@@ -3088,10 +3117,10 @@
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="C131" s="2">
         <v>0.15229999999999999</v>
@@ -3102,10 +3131,10 @@
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="C132" s="2">
         <v>0.15</v>
@@ -3116,10 +3145,10 @@
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>282</v>
+        <v>135</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="C133" s="2">
         <v>0.12280000000000001</v>
@@ -3130,10 +3159,10 @@
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="C134" s="2">
         <v>0.21260000000000001</v>
@@ -3144,10 +3173,10 @@
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="C135" s="2">
         <v>0.18970000000000001</v>
@@ -3158,10 +3187,10 @@
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="C136" s="2">
         <v>0.182</v>
@@ -3172,10 +3201,10 @@
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="C137" s="2">
         <v>0.18509999999999999</v>
@@ -3186,62 +3215,102 @@
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>46</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>47</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>48</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>50</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>51</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>52</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>53</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>55</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
